--- a/2_Excel Basics for Data Analysis/W4_AnalyseDataUsingSpreadsheet/Customer_demographics_and_sales_Lab6.xlsx
+++ b/2_Excel Basics for Data Analysis/W4_AnalyseDataUsingSpreadsheet/Customer_demographics_and_sales_Lab6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/2_Excel Basics for Data Analysis/W4_AnalyseDataUsingSpreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9017A-0680-5F43-8A09-240E6A6884A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F955EC4-E7D2-8B46-BCA7-64193998931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BJ14" sqref="BJ14"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2538,7 +2538,7 @@
     <col min="77" max="77" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>658</v>
       </c>
@@ -2741,13 +2741,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>LEFT(C2, SEARCH(" ",C2,1))</f>
+        <f t="shared" ref="A2:A33" si="0">LEFT(C2, SEARCH(" ",C2,1))</f>
         <v xml:space="preserve">Elizabeth </v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>RIGHT(C2,LEN(C2)-SEARCH(" ",C2,1))</f>
+        <f t="shared" ref="B2:B33" si="1">RIGHT(C2,LEN(C2)-SEARCH(" ",C2,1))</f>
         <v xml:space="preserve">Martinez </v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2939,21 +2939,14 @@
       <c r="BO2" s="1">
         <v>0</v>
       </c>
-      <c r="BX2" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="BY2" s="1">
-        <f>COUNTIF(N2:N195,"VISA")</f>
-        <v>41</v>
-      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>LEFT(C3, SEARCH(" ",C3,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Rafael </v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>RIGHT(C3,LEN(C3)-SEARCH(" ",C3,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Middleton </v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3036,14 +3029,14 @@
         <v>Medium</v>
       </c>
       <c r="AF3" s="1" t="str">
-        <f t="shared" ref="AF3:AF66" si="0">IF(AD3&gt;300,"Large",IF(AD3&gt;100,"Medium",IF(AD3&gt;0,"Small")))</f>
+        <f t="shared" ref="AF3:AF66" si="2">IF(AD3&gt;300,"Large",IF(AD3&gt;100,"Medium",IF(AD3&gt;0,"Small")))</f>
         <v>Medium</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH3" s="1" t="str">
-        <f t="shared" ref="AH3:AH66" si="1">IF(AG3="complete","yes","no")</f>
+        <f t="shared" ref="AH3:AH66" si="3">IF(AG3="complete","yes","no")</f>
         <v>yes</v>
       </c>
       <c r="AI3" s="1" t="s">
@@ -3145,21 +3138,14 @@
       <c r="BO3" s="1">
         <v>0</v>
       </c>
-      <c r="BX3" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="BY3" s="1">
-        <f>SUMIF(AE2:AE195,"Large",AD2:AD195)</f>
-        <v>2638.9</v>
-      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>LEFT(C4, SEARCH(" ",C4,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Kristin </v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>RIGHT(C4,LEN(C4)-SEARCH(" ",C4,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Mendoza </v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3242,14 +3228,14 @@
         <v>Small</v>
       </c>
       <c r="AF4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI4" s="1" t="s">
@@ -3351,21 +3337,14 @@
       <c r="BO4" s="1">
         <v>0</v>
       </c>
-      <c r="BX4" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="BY4" s="1">
-        <f>SUMIFS(AD2:AD195,AE2:AE195,"Large",AL2:AL195,"BABY_BOOMERS")</f>
-        <v>1350.9</v>
-      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>LEFT(C5, SEARCH(" ",C5,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>RIGHT(C5,LEN(C5)-SEARCH(" ",C5,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Perl </v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3448,14 +3427,14 @@
         <v>Small</v>
       </c>
       <c r="AF5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI5" s="1" t="s">
@@ -3558,13 +3537,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>LEFT(C6, SEARCH(" ",C6,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>RIGHT(C6,LEN(C6)-SEARCH(" ",C6,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Perl </v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3647,14 +3626,14 @@
         <v>Small</v>
       </c>
       <c r="AF6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI6" s="1" t="s">
@@ -3757,13 +3736,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>LEFT(C7, SEARCH(" ",C7,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Ray </v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>RIGHT(C7,LEN(C7)-SEARCH(" ",C7,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Hornsby </v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3843,14 +3822,14 @@
         <v>Small</v>
       </c>
       <c r="AF7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI7" s="1" t="s">
@@ -3953,13 +3932,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>LEFT(C8, SEARCH(" ",C8,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Therese </v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>RIGHT(C8,LEN(C8)-SEARCH(" ",C8,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Pickering </v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4042,14 +4021,14 @@
         <v>Small</v>
       </c>
       <c r="AF8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI8" s="1" t="s">
@@ -4152,13 +4131,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>LEFT(C9, SEARCH(" ",C9,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>RIGHT(C9,LEN(C9)-SEARCH(" ",C9,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4241,14 +4220,14 @@
         <v>Small</v>
       </c>
       <c r="AF9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI9" s="1" t="s">
@@ -4351,13 +4330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>LEFT(C10, SEARCH(" ",C10,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Ahmed </v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>RIGHT(C10,LEN(C10)-SEARCH(" ",C10,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Richard </v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4440,14 +4419,14 @@
         <v>Small</v>
       </c>
       <c r="AF10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI10" s="1" t="s">
@@ -4550,13 +4529,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>LEFT(C11, SEARCH(" ",C11,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Harold </v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>RIGHT(C11,LEN(C11)-SEARCH(" ",C11,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Magee </v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4639,14 +4618,14 @@
         <v>Small</v>
       </c>
       <c r="AF11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI11" s="1" t="s">
@@ -4749,13 +4728,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>LEFT(C12, SEARCH(" ",C12,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Donna </v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>RIGHT(C12,LEN(C12)-SEARCH(" ",C12,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Klock </v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4838,14 +4817,14 @@
         <v>Small</v>
       </c>
       <c r="AF12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI12" s="1" t="s">
@@ -4948,13 +4927,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>LEFT(C13, SEARCH(" ",C13,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">John </v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>RIGHT(C13,LEN(C13)-SEARCH(" ",C13,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Hoffman </v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5037,14 +5016,14 @@
         <v>Small</v>
       </c>
       <c r="AF13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI13" s="1" t="s">
@@ -5147,13 +5126,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>LEFT(C14, SEARCH(" ",C14,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Ahmed </v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>RIGHT(C14,LEN(C14)-SEARCH(" ",C14,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Richard </v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5236,14 +5215,14 @@
         <v>Small</v>
       </c>
       <c r="AF14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI14" s="1" t="s">
@@ -5346,13 +5325,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>LEFT(C15, SEARCH(" ",C15,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jana </v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>RIGHT(C15,LEN(C15)-SEARCH(" ",C15,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Hall </v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5435,14 +5414,14 @@
         <v>Small</v>
       </c>
       <c r="AF15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI15" s="1" t="s">
@@ -5545,13 +5524,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>LEFT(C16, SEARCH(" ",C16,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Ahmed </v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>RIGHT(C16,LEN(C16)-SEARCH(" ",C16,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Richard </v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5634,14 +5613,14 @@
         <v>Small</v>
       </c>
       <c r="AF16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI16" s="1" t="s">
@@ -5746,11 +5725,11 @@
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>LEFT(C17, SEARCH(" ",C17,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>RIGHT(C17,LEN(C17)-SEARCH(" ",C17,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Pritchard </v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5833,14 +5812,14 @@
         <v>Small</v>
       </c>
       <c r="AF17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI17" s="1" t="s">
@@ -5945,11 +5924,11 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>LEFT(C18, SEARCH(" ",C18,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Anthony </v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>RIGHT(C18,LEN(C18)-SEARCH(" ",C18,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Carr </v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6029,14 +6008,14 @@
         <v>Small</v>
       </c>
       <c r="AF18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI18" s="1" t="s">
@@ -6141,11 +6120,11 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>LEFT(C19, SEARCH(" ",C19,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>RIGHT(C19,LEN(C19)-SEARCH(" ",C19,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Rice </v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6228,14 +6207,14 @@
         <v>Small</v>
       </c>
       <c r="AF19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI19" s="1" t="s">
@@ -6340,11 +6319,11 @@
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>LEFT(C20, SEARCH(" ",C20,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>RIGHT(C20,LEN(C20)-SEARCH(" ",C20,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Reed </v>
       </c>
       <c r="C20" s="1" t="s">
@@ -6427,14 +6406,14 @@
         <v>Medium</v>
       </c>
       <c r="AF20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI20" s="1" t="s">
@@ -6539,11 +6518,11 @@
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>LEFT(C21, SEARCH(" ",C21,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Rafael </v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>RIGHT(C21,LEN(C21)-SEARCH(" ",C21,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Middleton </v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6626,14 +6605,14 @@
         <v>Medium</v>
       </c>
       <c r="AF21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI21" s="1" t="s">
@@ -6738,11 +6717,11 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>LEFT(C22, SEARCH(" ",C22,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Anthony </v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>RIGHT(C22,LEN(C22)-SEARCH(" ",C22,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Whitney </v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6822,14 +6801,14 @@
         <v>Small</v>
       </c>
       <c r="AF22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI22" s="1" t="s">
@@ -6934,11 +6913,11 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>LEFT(C23, SEARCH(" ",C23,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Margaret </v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>RIGHT(C23,LEN(C23)-SEARCH(" ",C23,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Shelton </v>
       </c>
       <c r="C23" s="1" t="s">
@@ -7021,14 +7000,14 @@
         <v>Small</v>
       </c>
       <c r="AF23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI23" s="1" t="s">
@@ -7133,11 +7112,11 @@
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>LEFT(C24, SEARCH(" ",C24,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Dwight </v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>RIGHT(C24,LEN(C24)-SEARCH(" ",C24,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Armenta </v>
       </c>
       <c r="C24" s="1" t="s">
@@ -7220,14 +7199,14 @@
         <v>Small</v>
       </c>
       <c r="AF24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI24" s="1" t="s">
@@ -7332,11 +7311,11 @@
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>LEFT(C25, SEARCH(" ",C25,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Kristin </v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>RIGHT(C25,LEN(C25)-SEARCH(" ",C25,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Mendoza </v>
       </c>
       <c r="C25" s="1" t="s">
@@ -7419,14 +7398,14 @@
         <v>Small</v>
       </c>
       <c r="AF25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI25" s="1" t="s">
@@ -7531,11 +7510,11 @@
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>LEFT(C26, SEARCH(" ",C26,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Lisa </v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>RIGHT(C26,LEN(C26)-SEARCH(" ",C26,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Guest </v>
       </c>
       <c r="C26" s="1" t="s">
@@ -7618,14 +7597,14 @@
         <v>Small</v>
       </c>
       <c r="AF26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI26" s="1" t="s">
@@ -7730,11 +7709,11 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>LEFT(C27, SEARCH(" ",C27,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>RIGHT(C27,LEN(C27)-SEARCH(" ",C27,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Owens </v>
       </c>
       <c r="C27" s="1" t="s">
@@ -7817,14 +7796,14 @@
         <v>Small</v>
       </c>
       <c r="AF27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI27" s="1" t="s">
@@ -7929,11 +7908,11 @@
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>LEFT(C28, SEARCH(" ",C28,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Amy </v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>RIGHT(C28,LEN(C28)-SEARCH(" ",C28,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Randle </v>
       </c>
       <c r="C28" s="1" t="s">
@@ -8013,14 +7992,14 @@
         <v>Large</v>
       </c>
       <c r="AF28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Large</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI28" s="1" t="s">
@@ -8125,11 +8104,11 @@
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>LEFT(C29, SEARCH(" ",C29,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>RIGHT(C29,LEN(C29)-SEARCH(" ",C29,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Sales </v>
       </c>
       <c r="C29" s="1" t="s">
@@ -8212,14 +8191,14 @@
         <v>Medium</v>
       </c>
       <c r="AF29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI29" s="1" t="s">
@@ -8324,11 +8303,11 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>LEFT(C30, SEARCH(" ",C30,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Harry </v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>RIGHT(C30,LEN(C30)-SEARCH(" ",C30,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Brumback </v>
       </c>
       <c r="C30" s="1" t="s">
@@ -8411,14 +8390,14 @@
         <v>Medium</v>
       </c>
       <c r="AF30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI30" s="1" t="s">
@@ -8523,11 +8502,11 @@
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>LEFT(C31, SEARCH(" ",C31,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Judy </v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>RIGHT(C31,LEN(C31)-SEARCH(" ",C31,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Larkin </v>
       </c>
       <c r="C31" s="1" t="s">
@@ -8610,14 +8589,14 @@
         <v>Small</v>
       </c>
       <c r="AF31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI31" s="1" t="s">
@@ -8722,11 +8701,11 @@
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>LEFT(C32, SEARCH(" ",C32,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>RIGHT(C32,LEN(C32)-SEARCH(" ",C32,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Perl </v>
       </c>
       <c r="C32" s="1" t="s">
@@ -8809,14 +8788,14 @@
         <v>Small</v>
       </c>
       <c r="AF32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG32" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI32" s="1" t="s">
@@ -8921,11 +8900,11 @@
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>LEFT(C33, SEARCH(" ",C33,1))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Hoyt </v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>RIGHT(C33,LEN(C33)-SEARCH(" ",C33,1))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Ramos </v>
       </c>
       <c r="C33" s="1" t="s">
@@ -9008,14 +8987,14 @@
         <v>Medium</v>
       </c>
       <c r="AF33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG33" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI33" s="1" t="s">
@@ -9120,11 +9099,11 @@
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>LEFT(C34, SEARCH(" ",C34,1))</f>
+        <f t="shared" ref="A34:A65" si="4">LEFT(C34, SEARCH(" ",C34,1))</f>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>RIGHT(C34,LEN(C34)-SEARCH(" ",C34,1))</f>
+        <f t="shared" ref="B34:B65" si="5">RIGHT(C34,LEN(C34)-SEARCH(" ",C34,1))</f>
         <v xml:space="preserve">Sales </v>
       </c>
       <c r="C34" s="1" t="s">
@@ -9207,14 +9186,14 @@
         <v>Medium</v>
       </c>
       <c r="AF34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI34" s="1" t="s">
@@ -9319,11 +9298,11 @@
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>LEFT(C35, SEARCH(" ",C35,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Yasmin </v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>RIGHT(C35,LEN(C35)-SEARCH(" ",C35,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Cole </v>
       </c>
       <c r="C35" s="1" t="s">
@@ -9406,14 +9385,14 @@
         <v>Large</v>
       </c>
       <c r="AF35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Large</v>
       </c>
       <c r="AG35" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI35" s="1" t="s">
@@ -9518,11 +9497,11 @@
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>LEFT(C36, SEARCH(" ",C36,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>RIGHT(C36,LEN(C36)-SEARCH(" ",C36,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Sales </v>
       </c>
       <c r="C36" s="1" t="s">
@@ -9605,14 +9584,14 @@
         <v>Medium</v>
       </c>
       <c r="AF36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG36" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI36" s="1" t="s">
@@ -9717,11 +9696,11 @@
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>LEFT(C37, SEARCH(" ",C37,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Tony </v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>RIGHT(C37,LEN(C37)-SEARCH(" ",C37,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Brooks </v>
       </c>
       <c r="C37" s="1" t="s">
@@ -9804,14 +9783,14 @@
         <v>Medium</v>
       </c>
       <c r="AF37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI37" s="1" t="s">
@@ -9916,11 +9895,11 @@
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>LEFT(C38, SEARCH(" ",C38,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>RIGHT(C38,LEN(C38)-SEARCH(" ",C38,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C38" s="1" t="s">
@@ -10003,14 +9982,14 @@
         <v>Small</v>
       </c>
       <c r="AF38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI38" s="1" t="s">
@@ -10115,11 +10094,11 @@
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>LEFT(C39, SEARCH(" ",C39,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>RIGHT(C39,LEN(C39)-SEARCH(" ",C39,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Perl </v>
       </c>
       <c r="C39" s="1" t="s">
@@ -10202,14 +10181,14 @@
         <v>Small</v>
       </c>
       <c r="AF39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI39" s="1" t="s">
@@ -10314,11 +10293,11 @@
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>LEFT(C40, SEARCH(" ",C40,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Frank </v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>RIGHT(C40,LEN(C40)-SEARCH(" ",C40,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Westra </v>
       </c>
       <c r="C40" s="1" t="s">
@@ -10401,14 +10380,14 @@
         <v>Small</v>
       </c>
       <c r="AF40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI40" s="1" t="s">
@@ -10513,11 +10492,11 @@
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>LEFT(C41, SEARCH(" ",C41,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Anthony </v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>RIGHT(C41,LEN(C41)-SEARCH(" ",C41,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Carr </v>
       </c>
       <c r="C41" s="1" t="s">
@@ -10597,14 +10576,14 @@
         <v>Small</v>
       </c>
       <c r="AF41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI41" s="1" t="s">
@@ -10709,11 +10688,11 @@
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>LEFT(C42, SEARCH(" ",C42,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>RIGHT(C42,LEN(C42)-SEARCH(" ",C42,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Sales </v>
       </c>
       <c r="C42" s="1" t="s">
@@ -10796,14 +10775,14 @@
         <v>Medium</v>
       </c>
       <c r="AF42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI42" s="1" t="s">
@@ -10908,11 +10887,11 @@
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>LEFT(C43, SEARCH(" ",C43,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Felix </v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>RIGHT(C43,LEN(C43)-SEARCH(" ",C43,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Myers </v>
       </c>
       <c r="C43" s="1" t="s">
@@ -10995,14 +10974,14 @@
         <v>Small</v>
       </c>
       <c r="AF43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG43" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI43" s="1" t="s">
@@ -11107,11 +11086,11 @@
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>LEFT(C44, SEARCH(" ",C44,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Cecil </v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>RIGHT(C44,LEN(C44)-SEARCH(" ",C44,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Games </v>
       </c>
       <c r="C44" s="1" t="s">
@@ -11191,14 +11170,14 @@
         <v>Small</v>
       </c>
       <c r="AF44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG44" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI44" s="1" t="s">
@@ -11303,11 +11282,11 @@
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>LEFT(C45, SEARCH(" ",C45,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Jodi </v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>RIGHT(C45,LEN(C45)-SEARCH(" ",C45,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Stanley </v>
       </c>
       <c r="C45" s="1" t="s">
@@ -11390,14 +11369,14 @@
         <v>Small</v>
       </c>
       <c r="AF45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG45" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI45" s="1" t="s">
@@ -11502,11 +11481,11 @@
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>LEFT(C46, SEARCH(" ",C46,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Scott </v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>RIGHT(C46,LEN(C46)-SEARCH(" ",C46,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Lawson </v>
       </c>
       <c r="C46" s="1" t="s">
@@ -11589,14 +11568,14 @@
         <v>Small</v>
       </c>
       <c r="AF46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG46" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI46" s="1" t="s">
@@ -11701,11 +11680,11 @@
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f>LEFT(C47, SEARCH(" ",C47,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Frank </v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>RIGHT(C47,LEN(C47)-SEARCH(" ",C47,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Westra </v>
       </c>
       <c r="C47" s="1" t="s">
@@ -11788,14 +11767,14 @@
         <v>Medium</v>
       </c>
       <c r="AF47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG47" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI47" s="1" t="s">
@@ -11900,11 +11879,11 @@
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f>LEFT(C48, SEARCH(" ",C48,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Reda </v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>RIGHT(C48,LEN(C48)-SEARCH(" ",C48,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Fullilove </v>
       </c>
       <c r="C48" s="1" t="s">
@@ -11984,14 +11963,14 @@
         <v>Medium</v>
       </c>
       <c r="AF48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG48" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI48" s="1" t="s">
@@ -12096,11 +12075,11 @@
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f>LEFT(C49, SEARCH(" ",C49,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Betty </v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>RIGHT(C49,LEN(C49)-SEARCH(" ",C49,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Grimes </v>
       </c>
       <c r="C49" s="1" t="s">
@@ -12180,14 +12159,14 @@
         <v>Small</v>
       </c>
       <c r="AF49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG49" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI49" s="1" t="s">
@@ -12292,11 +12271,11 @@
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f>LEFT(C50, SEARCH(" ",C50,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Reda </v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>RIGHT(C50,LEN(C50)-SEARCH(" ",C50,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Fullilove </v>
       </c>
       <c r="C50" s="1" t="s">
@@ -12376,14 +12355,14 @@
         <v>Small</v>
       </c>
       <c r="AF50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI50" s="1" t="s">
@@ -12488,11 +12467,11 @@
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f>LEFT(C51, SEARCH(" ",C51,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Harold </v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>RIGHT(C51,LEN(C51)-SEARCH(" ",C51,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Magee </v>
       </c>
       <c r="C51" s="1" t="s">
@@ -12575,14 +12554,14 @@
         <v>Small</v>
       </c>
       <c r="AF51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI51" s="1" t="s">
@@ -12687,11 +12666,11 @@
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f>LEFT(C52, SEARCH(" ",C52,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>RIGHT(C52,LEN(C52)-SEARCH(" ",C52,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C52" s="1" t="s">
@@ -12774,14 +12753,14 @@
         <v>Small</v>
       </c>
       <c r="AF52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI52" s="1" t="s">
@@ -12886,11 +12865,11 @@
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f>LEFT(C53, SEARCH(" ",C53,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Jack </v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>RIGHT(C53,LEN(C53)-SEARCH(" ",C53,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Owens </v>
       </c>
       <c r="C53" s="1" t="s">
@@ -12970,14 +12949,14 @@
         <v>Medium</v>
       </c>
       <c r="AF53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI53" s="1" t="s">
@@ -13082,11 +13061,11 @@
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f>LEFT(C54, SEARCH(" ",C54,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Ahmed </v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>RIGHT(C54,LEN(C54)-SEARCH(" ",C54,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Richard </v>
       </c>
       <c r="C54" s="1" t="s">
@@ -13169,14 +13148,14 @@
         <v>Small</v>
       </c>
       <c r="AF54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI54" s="1" t="s">
@@ -13281,11 +13260,11 @@
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f>LEFT(C55, SEARCH(" ",C55,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Donald </v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>RIGHT(C55,LEN(C55)-SEARCH(" ",C55,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Velazquez </v>
       </c>
       <c r="C55" s="1" t="s">
@@ -13365,14 +13344,14 @@
         <v>Small</v>
       </c>
       <c r="AF55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI55" s="1" t="s">
@@ -13477,11 +13456,11 @@
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f>LEFT(C56, SEARCH(" ",C56,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>RIGHT(C56,LEN(C56)-SEARCH(" ",C56,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Pritchard </v>
       </c>
       <c r="C56" s="1" t="s">
@@ -13564,14 +13543,14 @@
         <v>Large</v>
       </c>
       <c r="AF56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Large</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI56" s="1" t="s">
@@ -13676,11 +13655,11 @@
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f>LEFT(C57, SEARCH(" ",C57,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Robert </v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>RIGHT(C57,LEN(C57)-SEARCH(" ",C57,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Bilbo </v>
       </c>
       <c r="C57" s="1" t="s">
@@ -13763,14 +13742,14 @@
         <v>Small</v>
       </c>
       <c r="AF57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI57" s="1" t="s">
@@ -13875,11 +13854,11 @@
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f>LEFT(C58, SEARCH(" ",C58,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Earl </v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>RIGHT(C58,LEN(C58)-SEARCH(" ",C58,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Bruner </v>
       </c>
       <c r="C58" s="1" t="s">
@@ -13962,14 +13941,14 @@
         <v>Small</v>
       </c>
       <c r="AF58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI58" s="1" t="s">
@@ -14074,11 +14053,11 @@
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f>LEFT(C59, SEARCH(" ",C59,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Joseph </v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>RIGHT(C59,LEN(C59)-SEARCH(" ",C59,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Rogers </v>
       </c>
       <c r="C59" s="1" t="s">
@@ -14158,14 +14137,14 @@
         <v>Small</v>
       </c>
       <c r="AF59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI59" s="1" t="s">
@@ -14270,11 +14249,11 @@
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f>LEFT(C60, SEARCH(" ",C60,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Yasmin </v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>RIGHT(C60,LEN(C60)-SEARCH(" ",C60,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Cole </v>
       </c>
       <c r="C60" s="1" t="s">
@@ -14357,14 +14336,14 @@
         <v>Medium</v>
       </c>
       <c r="AF60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI60" s="1" t="s">
@@ -14469,11 +14448,11 @@
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f>LEFT(C61, SEARCH(" ",C61,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Jason </v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>RIGHT(C61,LEN(C61)-SEARCH(" ",C61,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Glass </v>
       </c>
       <c r="C61" s="1" t="s">
@@ -14556,14 +14535,14 @@
         <v>Medium</v>
       </c>
       <c r="AF61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI61" s="1" t="s">
@@ -14668,11 +14647,11 @@
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f>LEFT(C62, SEARCH(" ",C62,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Elizabeth </v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>RIGHT(C62,LEN(C62)-SEARCH(" ",C62,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Martinez </v>
       </c>
       <c r="C62" s="1" t="s">
@@ -14755,14 +14734,14 @@
         <v>Medium</v>
       </c>
       <c r="AF62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI62" s="1" t="s">
@@ -14867,11 +14846,11 @@
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f>LEFT(C63, SEARCH(" ",C63,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Tony </v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>RIGHT(C63,LEN(C63)-SEARCH(" ",C63,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Brooks </v>
       </c>
       <c r="C63" s="1" t="s">
@@ -14954,14 +14933,14 @@
         <v>Medium</v>
       </c>
       <c r="AF63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI63" s="1" t="s">
@@ -15066,11 +15045,11 @@
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f>LEFT(C64, SEARCH(" ",C64,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Bradford </v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>RIGHT(C64,LEN(C64)-SEARCH(" ",C64,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Claassen </v>
       </c>
       <c r="C64" s="1" t="s">
@@ -15153,14 +15132,14 @@
         <v>Medium</v>
       </c>
       <c r="AF64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI64" s="1" t="s">
@@ -15265,11 +15244,11 @@
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f>LEFT(C65, SEARCH(" ",C65,1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Scott </v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>RIGHT(C65,LEN(C65)-SEARCH(" ",C65,1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Lawson </v>
       </c>
       <c r="C65" s="1" t="s">
@@ -15352,14 +15331,14 @@
         <v>Medium</v>
       </c>
       <c r="AF65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="AG65" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>no</v>
       </c>
       <c r="AI65" s="1" t="s">
@@ -15464,11 +15443,11 @@
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f>LEFT(C66, SEARCH(" ",C66,1))</f>
+        <f t="shared" ref="A66:A97" si="6">LEFT(C66, SEARCH(" ",C66,1))</f>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>RIGHT(C66,LEN(C66)-SEARCH(" ",C66,1))</f>
+        <f t="shared" ref="B66:B97" si="7">RIGHT(C66,LEN(C66)-SEARCH(" ",C66,1))</f>
         <v xml:space="preserve">Farris </v>
       </c>
       <c r="C66" s="1" t="s">
@@ -15551,14 +15530,14 @@
         <v>Small</v>
       </c>
       <c r="AF66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Small</v>
       </c>
       <c r="AG66" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="AI66" s="1" t="s">
@@ -15663,11 +15642,11 @@
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f>LEFT(C67, SEARCH(" ",C67,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>RIGHT(C67,LEN(C67)-SEARCH(" ",C67,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Rice </v>
       </c>
       <c r="C67" s="1" t="s">
@@ -15750,14 +15729,14 @@
         <v>Small</v>
       </c>
       <c r="AF67" s="1" t="str">
-        <f t="shared" ref="AF67:AF130" si="2">IF(AD67&gt;300,"Large",IF(AD67&gt;100,"Medium",IF(AD67&gt;0,"Small")))</f>
+        <f t="shared" ref="AF67:AF130" si="8">IF(AD67&gt;300,"Large",IF(AD67&gt;100,"Medium",IF(AD67&gt;0,"Small")))</f>
         <v>Small</v>
       </c>
       <c r="AG67" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH67" s="1" t="str">
-        <f t="shared" ref="AH67:AH130" si="3">IF(AG67="complete","yes","no")</f>
+        <f t="shared" ref="AH67:AH130" si="9">IF(AG67="complete","yes","no")</f>
         <v>no</v>
       </c>
       <c r="AI67" s="1" t="s">
@@ -15862,11 +15841,11 @@
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f>LEFT(C68, SEARCH(" ",C68,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Betty </v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>RIGHT(C68,LEN(C68)-SEARCH(" ",C68,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Grimes </v>
       </c>
       <c r="C68" s="1" t="s">
@@ -15946,14 +15925,14 @@
         <v>Small</v>
       </c>
       <c r="AF68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG68" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH68" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI68" s="1" t="s">
@@ -16058,11 +16037,11 @@
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f>LEFT(C69, SEARCH(" ",C69,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>RIGHT(C69,LEN(C69)-SEARCH(" ",C69,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Owens </v>
       </c>
       <c r="C69" s="1" t="s">
@@ -16145,14 +16124,14 @@
         <v>Small</v>
       </c>
       <c r="AF69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG69" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH69" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI69" s="1" t="s">
@@ -16257,11 +16236,11 @@
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f>LEFT(C70, SEARCH(" ",C70,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>RIGHT(C70,LEN(C70)-SEARCH(" ",C70,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Reed </v>
       </c>
       <c r="C70" s="1" t="s">
@@ -16344,14 +16323,14 @@
         <v>Small</v>
       </c>
       <c r="AF70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG70" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI70" s="1" t="s">
@@ -16456,11 +16435,11 @@
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f>LEFT(C71, SEARCH(" ",C71,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Phyllis </v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>RIGHT(C71,LEN(C71)-SEARCH(" ",C71,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">White </v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16543,14 +16522,14 @@
         <v>Small</v>
       </c>
       <c r="AF71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG71" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH71" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI71" s="1" t="s">
@@ -16655,11 +16634,11 @@
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f>LEFT(C72, SEARCH(" ",C72,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Reynaldo </v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>RIGHT(C72,LEN(C72)-SEARCH(" ",C72,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Myers </v>
       </c>
       <c r="C72" s="1" t="s">
@@ -16742,14 +16721,14 @@
         <v>Small</v>
       </c>
       <c r="AF72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG72" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI72" s="1" t="s">
@@ -16854,11 +16833,11 @@
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f>LEFT(C73, SEARCH(" ",C73,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Donna </v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>RIGHT(C73,LEN(C73)-SEARCH(" ",C73,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Klock </v>
       </c>
       <c r="C73" s="1" t="s">
@@ -16941,14 +16920,14 @@
         <v>Small</v>
       </c>
       <c r="AF73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG73" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI73" s="1" t="s">
@@ -17053,11 +17032,11 @@
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f>LEFT(C74, SEARCH(" ",C74,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Jodi </v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>RIGHT(C74,LEN(C74)-SEARCH(" ",C74,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Stanley </v>
       </c>
       <c r="C74" s="1" t="s">
@@ -17140,14 +17119,14 @@
         <v>Small</v>
       </c>
       <c r="AF74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG74" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI74" s="1" t="s">
@@ -17252,11 +17231,11 @@
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f>LEFT(C75, SEARCH(" ",C75,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Elizabeth </v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>RIGHT(C75,LEN(C75)-SEARCH(" ",C75,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Turner </v>
       </c>
       <c r="C75" s="1" t="s">
@@ -17339,14 +17318,14 @@
         <v>Small</v>
       </c>
       <c r="AF75" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG75" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI75" s="1" t="s">
@@ -17451,11 +17430,11 @@
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f>LEFT(C76, SEARCH(" ",C76,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>RIGHT(C76,LEN(C76)-SEARCH(" ",C76,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Rice </v>
       </c>
       <c r="C76" s="1" t="s">
@@ -17538,14 +17517,14 @@
         <v>Medium</v>
       </c>
       <c r="AF76" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG76" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI76" s="1" t="s">
@@ -17650,11 +17629,11 @@
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f>LEFT(C77, SEARCH(" ",C77,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>RIGHT(C77,LEN(C77)-SEARCH(" ",C77,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Reed </v>
       </c>
       <c r="C77" s="1" t="s">
@@ -17737,14 +17716,14 @@
         <v>Medium</v>
       </c>
       <c r="AF77" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG77" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI77" s="1" t="s">
@@ -17849,11 +17828,11 @@
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f>LEFT(C78, SEARCH(" ",C78,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Jennifer </v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>RIGHT(C78,LEN(C78)-SEARCH(" ",C78,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Howard </v>
       </c>
       <c r="C78" s="1" t="s">
@@ -17936,14 +17915,14 @@
         <v>Small</v>
       </c>
       <c r="AF78" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG78" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI78" s="1" t="s">
@@ -18048,11 +18027,11 @@
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f>LEFT(C79, SEARCH(" ",C79,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Tony </v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>RIGHT(C79,LEN(C79)-SEARCH(" ",C79,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Brooks </v>
       </c>
       <c r="C79" s="1" t="s">
@@ -18135,14 +18114,14 @@
         <v>Medium</v>
       </c>
       <c r="AF79" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG79" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI79" s="1" t="s">
@@ -18247,11 +18226,11 @@
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f>LEFT(C80, SEARCH(" ",C80,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Ahmed </v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>RIGHT(C80,LEN(C80)-SEARCH(" ",C80,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Richard </v>
       </c>
       <c r="C80" s="1" t="s">
@@ -18334,14 +18313,14 @@
         <v>Medium</v>
       </c>
       <c r="AF80" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG80" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI80" s="1" t="s">
@@ -18446,11 +18425,11 @@
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f>LEFT(C81, SEARCH(" ",C81,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Edward </v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>RIGHT(C81,LEN(C81)-SEARCH(" ",C81,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Turner </v>
       </c>
       <c r="C81" s="1" t="s">
@@ -18533,14 +18512,14 @@
         <v>Medium</v>
       </c>
       <c r="AF81" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG81" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH81" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI81" s="1" t="s">
@@ -18645,11 +18624,11 @@
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f>LEFT(C82, SEARCH(" ",C82,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>RIGHT(C82,LEN(C82)-SEARCH(" ",C82,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Moyle </v>
       </c>
       <c r="C82" s="1" t="s">
@@ -18732,14 +18711,14 @@
         <v>Medium</v>
       </c>
       <c r="AF82" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG82" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH82" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI82" s="1" t="s">
@@ -18844,11 +18823,11 @@
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f>LEFT(C83, SEARCH(" ",C83,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Jennifer </v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>RIGHT(C83,LEN(C83)-SEARCH(" ",C83,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Howard </v>
       </c>
       <c r="C83" s="1" t="s">
@@ -18931,14 +18910,14 @@
         <v>Small</v>
       </c>
       <c r="AF83" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG83" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH83" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI83" s="1" t="s">
@@ -19043,11 +19022,11 @@
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f>LEFT(C84, SEARCH(" ",C84,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Judy </v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>RIGHT(C84,LEN(C84)-SEARCH(" ",C84,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Hopping </v>
       </c>
       <c r="C84" s="1" t="s">
@@ -19127,14 +19106,14 @@
         <v>Medium</v>
       </c>
       <c r="AF84" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG84" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI84" s="1" t="s">
@@ -19239,11 +19218,11 @@
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f>LEFT(C85, SEARCH(" ",C85,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Calvin </v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>RIGHT(C85,LEN(C85)-SEARCH(" ",C85,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Shupe </v>
       </c>
       <c r="C85" s="1" t="s">
@@ -19326,14 +19305,14 @@
         <v>Small</v>
       </c>
       <c r="AF85" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG85" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI85" s="1" t="s">
@@ -19438,11 +19417,11 @@
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f>LEFT(C86, SEARCH(" ",C86,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Arlene </v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>RIGHT(C86,LEN(C86)-SEARCH(" ",C86,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Cruz </v>
       </c>
       <c r="C86" s="1" t="s">
@@ -19525,14 +19504,14 @@
         <v>Small</v>
       </c>
       <c r="AF86" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG86" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI86" s="1" t="s">
@@ -19637,11 +19616,11 @@
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f>LEFT(C87, SEARCH(" ",C87,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>RIGHT(C87,LEN(C87)-SEARCH(" ",C87,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C87" s="1" t="s">
@@ -19724,14 +19703,14 @@
         <v>Small</v>
       </c>
       <c r="AF87" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG87" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI87" s="1" t="s">
@@ -19836,11 +19815,11 @@
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f>LEFT(C88, SEARCH(" ",C88,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Katherine </v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>RIGHT(C88,LEN(C88)-SEARCH(" ",C88,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Mullins </v>
       </c>
       <c r="C88" s="1" t="s">
@@ -19923,14 +19902,14 @@
         <v>Small</v>
       </c>
       <c r="AF88" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG88" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI88" s="1" t="s">
@@ -20035,11 +20014,11 @@
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f>LEFT(C89, SEARCH(" ",C89,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Melba </v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>RIGHT(C89,LEN(C89)-SEARCH(" ",C89,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Whitehead </v>
       </c>
       <c r="C89" s="1" t="s">
@@ -20122,14 +20101,14 @@
         <v>Large</v>
       </c>
       <c r="AF89" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Large</v>
       </c>
       <c r="AG89" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI89" s="1" t="s">
@@ -20234,11 +20213,11 @@
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f>LEFT(C90, SEARCH(" ",C90,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>RIGHT(C90,LEN(C90)-SEARCH(" ",C90,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Gordon </v>
       </c>
       <c r="C90" s="1" t="s">
@@ -20321,14 +20300,14 @@
         <v>Small</v>
       </c>
       <c r="AF90" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG90" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI90" s="1" t="s">
@@ -20433,11 +20412,11 @@
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
-        <f>LEFT(C91, SEARCH(" ",C91,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Rebecca </v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>RIGHT(C91,LEN(C91)-SEARCH(" ",C91,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Uresti </v>
       </c>
       <c r="C91" s="1" t="s">
@@ -20520,14 +20499,14 @@
         <v>Small</v>
       </c>
       <c r="AF91" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG91" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI91" s="1" t="s">
@@ -20632,11 +20611,11 @@
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
-        <f>LEFT(C92, SEARCH(" ",C92,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Melba </v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>RIGHT(C92,LEN(C92)-SEARCH(" ",C92,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Whitehead </v>
       </c>
       <c r="C92" s="1" t="s">
@@ -20719,14 +20698,14 @@
         <v>Small</v>
       </c>
       <c r="AF92" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG92" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI92" s="1" t="s">
@@ -20831,11 +20810,11 @@
     </row>
     <row r="93" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
-        <f>LEFT(C93, SEARCH(" ",C93,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Judy </v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>RIGHT(C93,LEN(C93)-SEARCH(" ",C93,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Hopping </v>
       </c>
       <c r="C93" s="1" t="s">
@@ -20915,14 +20894,14 @@
         <v>Small</v>
       </c>
       <c r="AF93" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG93" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI93" s="1" t="s">
@@ -21027,11 +21006,11 @@
     </row>
     <row r="94" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
-        <f>LEFT(C94, SEARCH(" ",C94,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Katherine </v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>RIGHT(C94,LEN(C94)-SEARCH(" ",C94,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Mullins </v>
       </c>
       <c r="C94" s="1" t="s">
@@ -21114,14 +21093,14 @@
         <v>Small</v>
       </c>
       <c r="AF94" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG94" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI94" s="1" t="s">
@@ -21226,11 +21205,11 @@
     </row>
     <row r="95" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
-        <f>LEFT(C95, SEARCH(" ",C95,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>RIGHT(C95,LEN(C95)-SEARCH(" ",C95,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Sales </v>
       </c>
       <c r="C95" s="1" t="s">
@@ -21313,14 +21292,14 @@
         <v>Medium</v>
       </c>
       <c r="AF95" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG95" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI95" s="1" t="s">
@@ -21425,11 +21404,11 @@
     </row>
     <row r="96" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
-        <f>LEFT(C96, SEARCH(" ",C96,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Robert </v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>RIGHT(C96,LEN(C96)-SEARCH(" ",C96,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Ojeda </v>
       </c>
       <c r="C96" s="1" t="s">
@@ -21512,14 +21491,14 @@
         <v>Medium</v>
       </c>
       <c r="AF96" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG96" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI96" s="1" t="s">
@@ -21624,11 +21603,11 @@
     </row>
     <row r="97" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
-        <f>LEFT(C97, SEARCH(" ",C97,1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>RIGHT(C97,LEN(C97)-SEARCH(" ",C97,1))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Farris </v>
       </c>
       <c r="C97" s="1" t="s">
@@ -21711,14 +21690,14 @@
         <v>Medium</v>
       </c>
       <c r="AF97" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG97" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI97" s="1" t="s">
@@ -21823,11 +21802,11 @@
     </row>
     <row r="98" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
-        <f>LEFT(C98, SEARCH(" ",C98,1))</f>
+        <f t="shared" ref="A98:A129" si="10">LEFT(C98, SEARCH(" ",C98,1))</f>
         <v xml:space="preserve">Jana </v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>RIGHT(C98,LEN(C98)-SEARCH(" ",C98,1))</f>
+        <f t="shared" ref="B98:B129" si="11">RIGHT(C98,LEN(C98)-SEARCH(" ",C98,1))</f>
         <v xml:space="preserve">Hall </v>
       </c>
       <c r="C98" s="1" t="s">
@@ -21910,14 +21889,14 @@
         <v>Small</v>
       </c>
       <c r="AF98" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG98" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI98" s="1" t="s">
@@ -22022,11 +22001,11 @@
     </row>
     <row r="99" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
-        <f>LEFT(C99, SEARCH(" ",C99,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Henry </v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>RIGHT(C99,LEN(C99)-SEARCH(" ",C99,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Williams </v>
       </c>
       <c r="C99" s="1" t="s">
@@ -22109,14 +22088,14 @@
         <v>Small</v>
       </c>
       <c r="AF99" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG99" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI99" s="1" t="s">
@@ -22221,11 +22200,11 @@
     </row>
     <row r="100" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
-        <f>LEFT(C100, SEARCH(" ",C100,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Quinn </v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>RIGHT(C100,LEN(C100)-SEARCH(" ",C100,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Perry </v>
       </c>
       <c r="C100" s="1" t="s">
@@ -22308,14 +22287,14 @@
         <v>Small</v>
       </c>
       <c r="AF100" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG100" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI100" s="1" t="s">
@@ -22420,11 +22399,11 @@
     </row>
     <row r="101" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
-        <f>LEFT(C101, SEARCH(" ",C101,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Muriel </v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>RIGHT(C101,LEN(C101)-SEARCH(" ",C101,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Exley </v>
       </c>
       <c r="C101" s="1" t="s">
@@ -22507,14 +22486,14 @@
         <v>Small</v>
       </c>
       <c r="AF101" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG101" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI101" s="1" t="s">
@@ -22619,11 +22598,11 @@
     </row>
     <row r="102" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
-        <f>LEFT(C102, SEARCH(" ",C102,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Ivan </v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>RIGHT(C102,LEN(C102)-SEARCH(" ",C102,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Case </v>
       </c>
       <c r="C102" s="1" t="s">
@@ -22706,14 +22685,14 @@
         <v>Medium</v>
       </c>
       <c r="AF102" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG102" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI102" s="1" t="s">
@@ -22818,11 +22797,11 @@
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
-        <f>LEFT(C103, SEARCH(" ",C103,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Bradford </v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>RIGHT(C103,LEN(C103)-SEARCH(" ",C103,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Claassen </v>
       </c>
       <c r="C103" s="1" t="s">
@@ -22905,14 +22884,14 @@
         <v>Medium</v>
       </c>
       <c r="AF103" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG103" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI103" s="1" t="s">
@@ -23017,11 +22996,11 @@
     </row>
     <row r="104" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
-        <f>LEFT(C104, SEARCH(" ",C104,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Mandy </v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>RIGHT(C104,LEN(C104)-SEARCH(" ",C104,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Fernandez </v>
       </c>
       <c r="C104" s="1" t="s">
@@ -23104,14 +23083,14 @@
         <v>Small</v>
       </c>
       <c r="AF104" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG104" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI104" s="1" t="s">
@@ -23216,11 +23195,11 @@
     </row>
     <row r="105" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
-        <f>LEFT(C105, SEARCH(" ",C105,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Yasmin </v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>RIGHT(C105,LEN(C105)-SEARCH(" ",C105,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Cole </v>
       </c>
       <c r="C105" s="1" t="s">
@@ -23303,14 +23282,14 @@
         <v>Medium</v>
       </c>
       <c r="AF105" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG105" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI105" s="1" t="s">
@@ -23415,11 +23394,11 @@
     </row>
     <row r="106" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
-        <f>LEFT(C106, SEARCH(" ",C106,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Melvin </v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>RIGHT(C106,LEN(C106)-SEARCH(" ",C106,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Schmitz </v>
       </c>
       <c r="C106" s="1" t="s">
@@ -23499,14 +23478,14 @@
         <v>Small</v>
       </c>
       <c r="AF106" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG106" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI106" s="1" t="s">
@@ -23611,11 +23590,11 @@
     </row>
     <row r="107" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
-        <f>LEFT(C107, SEARCH(" ",C107,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Jennifer </v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>RIGHT(C107,LEN(C107)-SEARCH(" ",C107,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Howard </v>
       </c>
       <c r="C107" s="1" t="s">
@@ -23698,14 +23677,14 @@
         <v>Small</v>
       </c>
       <c r="AF107" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG107" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI107" s="1" t="s">
@@ -23810,11 +23789,11 @@
     </row>
     <row r="108" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
-        <f>LEFT(C108, SEARCH(" ",C108,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Kristin </v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>RIGHT(C108,LEN(C108)-SEARCH(" ",C108,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Mendoza </v>
       </c>
       <c r="C108" s="1" t="s">
@@ -23897,14 +23876,14 @@
         <v>Small</v>
       </c>
       <c r="AF108" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG108" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI108" s="1" t="s">
@@ -24009,11 +23988,11 @@
     </row>
     <row r="109" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
-        <f>LEFT(C109, SEARCH(" ",C109,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Natalie </v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>RIGHT(C109,LEN(C109)-SEARCH(" ",C109,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">White </v>
       </c>
       <c r="C109" s="1" t="s">
@@ -24096,14 +24075,14 @@
         <v>Medium</v>
       </c>
       <c r="AF109" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG109" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH109" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI109" s="1" t="s">
@@ -24208,11 +24187,11 @@
     </row>
     <row r="110" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
-        <f>LEFT(C110, SEARCH(" ",C110,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>RIGHT(C110,LEN(C110)-SEARCH(" ",C110,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Perl </v>
       </c>
       <c r="C110" s="1" t="s">
@@ -24295,14 +24274,14 @@
         <v>Medium</v>
       </c>
       <c r="AF110" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG110" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH110" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI110" s="1" t="s">
@@ -24407,11 +24386,11 @@
     </row>
     <row r="111" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
-        <f>LEFT(C111, SEARCH(" ",C111,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Dwight </v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>RIGHT(C111,LEN(C111)-SEARCH(" ",C111,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Armenta </v>
       </c>
       <c r="C111" s="1" t="s">
@@ -24494,14 +24473,14 @@
         <v>Small</v>
       </c>
       <c r="AF111" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG111" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH111" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI111" s="1" t="s">
@@ -24606,11 +24585,11 @@
     </row>
     <row r="112" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
-        <f>LEFT(C112, SEARCH(" ",C112,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Harry </v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>RIGHT(C112,LEN(C112)-SEARCH(" ",C112,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Brumback </v>
       </c>
       <c r="C112" s="1" t="s">
@@ -24693,14 +24672,14 @@
         <v>Small</v>
       </c>
       <c r="AF112" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG112" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH112" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI112" s="1" t="s">
@@ -24805,11 +24784,11 @@
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
-        <f>LEFT(C113, SEARCH(" ",C113,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Anthony </v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>RIGHT(C113,LEN(C113)-SEARCH(" ",C113,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Carr </v>
       </c>
       <c r="C113" s="1" t="s">
@@ -24889,14 +24868,14 @@
         <v>Small</v>
       </c>
       <c r="AF113" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG113" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH113" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI113" s="1" t="s">
@@ -25001,11 +24980,11 @@
     </row>
     <row r="114" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
-        <f>LEFT(C114, SEARCH(" ",C114,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Elizabeth </v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>RIGHT(C114,LEN(C114)-SEARCH(" ",C114,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Turner </v>
       </c>
       <c r="C114" s="1" t="s">
@@ -25088,14 +25067,14 @@
         <v>Small</v>
       </c>
       <c r="AF114" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG114" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH114" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI114" s="1" t="s">
@@ -25200,11 +25179,11 @@
     </row>
     <row r="115" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
-        <f>LEFT(C115, SEARCH(" ",C115,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Jason </v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>RIGHT(C115,LEN(C115)-SEARCH(" ",C115,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Glass </v>
       </c>
       <c r="C115" s="1" t="s">
@@ -25287,14 +25266,14 @@
         <v>Medium</v>
       </c>
       <c r="AF115" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG115" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH115" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI115" s="1" t="s">
@@ -25399,11 +25378,11 @@
     </row>
     <row r="116" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
-        <f>LEFT(C116, SEARCH(" ",C116,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>RIGHT(C116,LEN(C116)-SEARCH(" ",C116,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Owens </v>
       </c>
       <c r="C116" s="1" t="s">
@@ -25486,14 +25465,14 @@
         <v>Small</v>
       </c>
       <c r="AF116" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG116" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH116" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI116" s="1" t="s">
@@ -25598,11 +25577,11 @@
     </row>
     <row r="117" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
-        <f>LEFT(C117, SEARCH(" ",C117,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Anthony </v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>RIGHT(C117,LEN(C117)-SEARCH(" ",C117,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Carr </v>
       </c>
       <c r="C117" s="1" t="s">
@@ -25682,14 +25661,14 @@
         <v>Small</v>
       </c>
       <c r="AF117" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG117" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH117" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI117" s="1" t="s">
@@ -25794,11 +25773,11 @@
     </row>
     <row r="118" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
-        <f>LEFT(C118, SEARCH(" ",C118,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Harold </v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>RIGHT(C118,LEN(C118)-SEARCH(" ",C118,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Magee </v>
       </c>
       <c r="C118" s="1" t="s">
@@ -25881,14 +25860,14 @@
         <v>Small</v>
       </c>
       <c r="AF118" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG118" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH118" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI118" s="1" t="s">
@@ -25993,11 +25972,11 @@
     </row>
     <row r="119" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
-        <f>LEFT(C119, SEARCH(" ",C119,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Jodi </v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>RIGHT(C119,LEN(C119)-SEARCH(" ",C119,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Stanley </v>
       </c>
       <c r="C119" s="1" t="s">
@@ -26080,14 +26059,14 @@
         <v>Small</v>
       </c>
       <c r="AF119" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG119" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH119" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI119" s="1" t="s">
@@ -26192,11 +26171,11 @@
     </row>
     <row r="120" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
-        <f>LEFT(C120, SEARCH(" ",C120,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Megan </v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>RIGHT(C120,LEN(C120)-SEARCH(" ",C120,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Mauro </v>
       </c>
       <c r="C120" s="1" t="s">
@@ -26279,14 +26258,14 @@
         <v>Small</v>
       </c>
       <c r="AF120" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG120" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH120" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI120" s="1" t="s">
@@ -26391,11 +26370,11 @@
     </row>
     <row r="121" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
-        <f>LEFT(C121, SEARCH(" ",C121,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Edward </v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>RIGHT(C121,LEN(C121)-SEARCH(" ",C121,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Turner </v>
       </c>
       <c r="C121" s="1" t="s">
@@ -26478,14 +26457,14 @@
         <v>Medium</v>
       </c>
       <c r="AF121" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG121" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH121" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI121" s="1" t="s">
@@ -26590,11 +26569,11 @@
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
-        <f>LEFT(C122, SEARCH(" ",C122,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Felix </v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>RIGHT(C122,LEN(C122)-SEARCH(" ",C122,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Myers </v>
       </c>
       <c r="C122" s="1" t="s">
@@ -26677,14 +26656,14 @@
         <v>Small</v>
       </c>
       <c r="AF122" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG122" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH122" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI122" s="1" t="s">
@@ -26789,11 +26768,11 @@
     </row>
     <row r="123" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
-        <f>LEFT(C123, SEARCH(" ",C123,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>RIGHT(C123,LEN(C123)-SEARCH(" ",C123,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Farris </v>
       </c>
       <c r="C123" s="1" t="s">
@@ -26876,14 +26855,14 @@
         <v>Medium</v>
       </c>
       <c r="AF123" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG123" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH123" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI123" s="1" t="s">
@@ -26988,11 +26967,11 @@
     </row>
     <row r="124" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
-        <f>LEFT(C124, SEARCH(" ",C124,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Bob </v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>RIGHT(C124,LEN(C124)-SEARCH(" ",C124,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Davenport </v>
       </c>
       <c r="C124" s="1" t="s">
@@ -27075,14 +27054,14 @@
         <v>Medium</v>
       </c>
       <c r="AF124" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG124" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH124" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI124" s="1" t="s">
@@ -27187,11 +27166,11 @@
     </row>
     <row r="125" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
-        <f>LEFT(C125, SEARCH(" ",C125,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Mildred </v>
       </c>
       <c r="B125" s="1" t="str">
-        <f>RIGHT(C125,LEN(C125)-SEARCH(" ",C125,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Carey </v>
       </c>
       <c r="C125" s="1" t="s">
@@ -27271,14 +27250,14 @@
         <v>Medium</v>
       </c>
       <c r="AF125" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG125" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH125" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI125" s="1" t="s">
@@ -27383,11 +27362,11 @@
     </row>
     <row r="126" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
-        <f>LEFT(C126, SEARCH(" ",C126,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Natalie </v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>RIGHT(C126,LEN(C126)-SEARCH(" ",C126,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">White </v>
       </c>
       <c r="C126" s="1" t="s">
@@ -27470,14 +27449,14 @@
         <v>Medium</v>
       </c>
       <c r="AF126" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG126" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH126" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI126" s="1" t="s">
@@ -27582,11 +27561,11 @@
     </row>
     <row r="127" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
-        <f>LEFT(C127, SEARCH(" ",C127,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Michael </v>
       </c>
       <c r="B127" s="1" t="str">
-        <f>RIGHT(C127,LEN(C127)-SEARCH(" ",C127,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Reed </v>
       </c>
       <c r="C127" s="1" t="s">
@@ -27669,14 +27648,14 @@
         <v>Small</v>
       </c>
       <c r="AF127" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG127" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH127" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI127" s="1" t="s">
@@ -27781,11 +27760,11 @@
     </row>
     <row r="128" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f>LEFT(C128, SEARCH(" ",C128,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Judy </v>
       </c>
       <c r="B128" s="1" t="str">
-        <f>RIGHT(C128,LEN(C128)-SEARCH(" ",C128,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Larkin </v>
       </c>
       <c r="C128" s="1" t="s">
@@ -27868,14 +27847,14 @@
         <v>Medium</v>
       </c>
       <c r="AF128" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="AG128" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH128" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI128" s="1" t="s">
@@ -27980,11 +27959,11 @@
     </row>
     <row r="129" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f>LEFT(C129, SEARCH(" ",C129,1))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Yasmin </v>
       </c>
       <c r="B129" s="1" t="str">
-        <f>RIGHT(C129,LEN(C129)-SEARCH(" ",C129,1))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Cole </v>
       </c>
       <c r="C129" s="1" t="s">
@@ -28067,14 +28046,14 @@
         <v>Small</v>
       </c>
       <c r="AF129" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG129" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH129" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="AI129" s="1" t="s">
@@ -28179,11 +28158,11 @@
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f>LEFT(C130, SEARCH(" ",C130,1))</f>
+        <f t="shared" ref="A130:A161" si="12">LEFT(C130, SEARCH(" ",C130,1))</f>
         <v xml:space="preserve">Katherine </v>
       </c>
       <c r="B130" s="1" t="str">
-        <f>RIGHT(C130,LEN(C130)-SEARCH(" ",C130,1))</f>
+        <f t="shared" ref="B130:B161" si="13">RIGHT(C130,LEN(C130)-SEARCH(" ",C130,1))</f>
         <v xml:space="preserve">Mullins </v>
       </c>
       <c r="C130" s="1" t="s">
@@ -28266,14 +28245,14 @@
         <v>Small</v>
       </c>
       <c r="AF130" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Small</v>
       </c>
       <c r="AG130" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH130" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="AI130" s="1" t="s">
@@ -28378,11 +28357,11 @@
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f>LEFT(C131, SEARCH(" ",C131,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Hoyt </v>
       </c>
       <c r="B131" s="1" t="str">
-        <f>RIGHT(C131,LEN(C131)-SEARCH(" ",C131,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Ramos </v>
       </c>
       <c r="C131" s="1" t="s">
@@ -28465,14 +28444,14 @@
         <v>Medium</v>
       </c>
       <c r="AF131" s="1" t="str">
-        <f t="shared" ref="AF131:AF194" si="4">IF(AD131&gt;300,"Large",IF(AD131&gt;100,"Medium",IF(AD131&gt;0,"Small")))</f>
+        <f t="shared" ref="AF131:AF194" si="14">IF(AD131&gt;300,"Large",IF(AD131&gt;100,"Medium",IF(AD131&gt;0,"Small")))</f>
         <v>Medium</v>
       </c>
       <c r="AG131" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH131" s="1" t="str">
-        <f t="shared" ref="AH131:AH194" si="5">IF(AG131="complete","yes","no")</f>
+        <f t="shared" ref="AH131:AH194" si="15">IF(AG131="complete","yes","no")</f>
         <v>yes</v>
       </c>
       <c r="AI131" s="1" t="s">
@@ -28577,11 +28556,11 @@
     </row>
     <row r="132" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
-        <f>LEFT(C132, SEARCH(" ",C132,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Reynaldo </v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>RIGHT(C132,LEN(C132)-SEARCH(" ",C132,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Myers </v>
       </c>
       <c r="C132" s="1" t="s">
@@ -28664,14 +28643,14 @@
         <v>Small</v>
       </c>
       <c r="AF132" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG132" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH132" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI132" s="1" t="s">
@@ -28776,11 +28755,11 @@
     </row>
     <row r="133" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
-        <f>LEFT(C133, SEARCH(" ",C133,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Allen </v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>RIGHT(C133,LEN(C133)-SEARCH(" ",C133,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Perl </v>
       </c>
       <c r="C133" s="1" t="s">
@@ -28863,14 +28842,14 @@
         <v>Small</v>
       </c>
       <c r="AF133" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG133" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH133" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI133" s="1" t="s">
@@ -28975,11 +28954,11 @@
     </row>
     <row r="134" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
-        <f>LEFT(C134, SEARCH(" ",C134,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Anthony </v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>RIGHT(C134,LEN(C134)-SEARCH(" ",C134,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Carr </v>
       </c>
       <c r="C134" s="1" t="s">
@@ -29059,14 +29038,14 @@
         <v>Small</v>
       </c>
       <c r="AF134" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG134" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH134" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI134" s="1" t="s">
@@ -29171,11 +29150,11 @@
     </row>
     <row r="135" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
-        <f>LEFT(C135, SEARCH(" ",C135,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Therese </v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>RIGHT(C135,LEN(C135)-SEARCH(" ",C135,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Pickering </v>
       </c>
       <c r="C135" s="1" t="s">
@@ -29258,14 +29237,14 @@
         <v>Small</v>
       </c>
       <c r="AF135" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG135" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH135" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI135" s="1" t="s">
@@ -29370,11 +29349,11 @@
     </row>
     <row r="136" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
-        <f>LEFT(C136, SEARCH(" ",C136,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>RIGHT(C136,LEN(C136)-SEARCH(" ",C136,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Owens </v>
       </c>
       <c r="C136" s="1" t="s">
@@ -29457,14 +29436,14 @@
         <v>Small</v>
       </c>
       <c r="AF136" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG136" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH136" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI136" s="1" t="s">
@@ -29569,11 +29548,11 @@
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
-        <f>LEFT(C137, SEARCH(" ",C137,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Betty </v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>RIGHT(C137,LEN(C137)-SEARCH(" ",C137,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Grimes </v>
       </c>
       <c r="C137" s="1" t="s">
@@ -29653,14 +29632,14 @@
         <v>Small</v>
       </c>
       <c r="AF137" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG137" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH137" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI137" s="1" t="s">
@@ -29765,11 +29744,11 @@
     </row>
     <row r="138" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
-        <f>LEFT(C138, SEARCH(" ",C138,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Felix </v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>RIGHT(C138,LEN(C138)-SEARCH(" ",C138,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Myers </v>
       </c>
       <c r="C138" s="1" t="s">
@@ -29852,14 +29831,14 @@
         <v>Small</v>
       </c>
       <c r="AF138" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG138" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH138" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI138" s="1" t="s">
@@ -29964,11 +29943,11 @@
     </row>
     <row r="139" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
-        <f>LEFT(C139, SEARCH(" ",C139,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Arlene </v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>RIGHT(C139,LEN(C139)-SEARCH(" ",C139,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Cruz </v>
       </c>
       <c r="C139" s="1" t="s">
@@ -30051,14 +30030,14 @@
         <v>Small</v>
       </c>
       <c r="AF139" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG139" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH139" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI139" s="1" t="s">
@@ -30163,11 +30142,11 @@
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
-        <f>LEFT(C140, SEARCH(" ",C140,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Kristin </v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>RIGHT(C140,LEN(C140)-SEARCH(" ",C140,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Mendoza </v>
       </c>
       <c r="C140" s="1" t="s">
@@ -30250,14 +30229,14 @@
         <v>Small</v>
       </c>
       <c r="AF140" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG140" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH140" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI140" s="1" t="s">
@@ -30362,11 +30341,11 @@
     </row>
     <row r="141" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
-        <f>LEFT(C141, SEARCH(" ",C141,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Phyllis </v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>RIGHT(C141,LEN(C141)-SEARCH(" ",C141,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">White </v>
       </c>
       <c r="C141" s="1" t="s">
@@ -30449,14 +30428,14 @@
         <v>Small</v>
       </c>
       <c r="AF141" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG141" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH141" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI141" s="1" t="s">
@@ -30561,11 +30540,11 @@
     </row>
     <row r="142" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
-        <f>LEFT(C142, SEARCH(" ",C142,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Judy </v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>RIGHT(C142,LEN(C142)-SEARCH(" ",C142,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Hopping </v>
       </c>
       <c r="C142" s="1" t="s">
@@ -30645,14 +30624,14 @@
         <v>Medium</v>
       </c>
       <c r="AF142" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG142" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH142" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI142" s="1" t="s">
@@ -30757,11 +30736,11 @@
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
-        <f>LEFT(C143, SEARCH(" ",C143,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Mildred </v>
       </c>
       <c r="B143" s="1" t="str">
-        <f>RIGHT(C143,LEN(C143)-SEARCH(" ",C143,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Carey </v>
       </c>
       <c r="C143" s="1" t="s">
@@ -30841,14 +30820,14 @@
         <v>Medium</v>
       </c>
       <c r="AF143" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG143" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH143" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI143" s="1" t="s">
@@ -30953,11 +30932,11 @@
     </row>
     <row r="144" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
-        <f>LEFT(C144, SEARCH(" ",C144,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Joseph </v>
       </c>
       <c r="B144" s="1" t="str">
-        <f>RIGHT(C144,LEN(C144)-SEARCH(" ",C144,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Shafer </v>
       </c>
       <c r="C144" s="1" t="s">
@@ -31040,14 +31019,14 @@
         <v>Medium</v>
       </c>
       <c r="AF144" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG144" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH144" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI144" s="1" t="s">
@@ -31152,11 +31131,11 @@
     </row>
     <row r="145" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
-        <f>LEFT(C145, SEARCH(" ",C145,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Dwight </v>
       </c>
       <c r="B145" s="1" t="str">
-        <f>RIGHT(C145,LEN(C145)-SEARCH(" ",C145,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Armenta </v>
       </c>
       <c r="C145" s="1" t="s">
@@ -31239,14 +31218,14 @@
         <v>Medium</v>
       </c>
       <c r="AF145" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG145" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH145" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI145" s="1" t="s">
@@ -31351,11 +31330,11 @@
     </row>
     <row r="146" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
-        <f>LEFT(C146, SEARCH(" ",C146,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Mary </v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>RIGHT(C146,LEN(C146)-SEARCH(" ",C146,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Bates </v>
       </c>
       <c r="C146" s="1" t="s">
@@ -31438,14 +31417,14 @@
         <v>Small</v>
       </c>
       <c r="AF146" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG146" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH146" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI146" s="1" t="s">
@@ -31550,11 +31529,11 @@
     </row>
     <row r="147" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
-        <f>LEFT(C147, SEARCH(" ",C147,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Harold </v>
       </c>
       <c r="B147" s="1" t="str">
-        <f>RIGHT(C147,LEN(C147)-SEARCH(" ",C147,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Magee </v>
       </c>
       <c r="C147" s="1" t="s">
@@ -31637,14 +31616,14 @@
         <v>Small</v>
       </c>
       <c r="AF147" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG147" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH147" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI147" s="1" t="s">
@@ -31749,11 +31728,11 @@
     </row>
     <row r="148" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
-        <f>LEFT(C148, SEARCH(" ",C148,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">John </v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>RIGHT(C148,LEN(C148)-SEARCH(" ",C148,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Riley </v>
       </c>
       <c r="C148" s="1" t="s">
@@ -31833,14 +31812,14 @@
         <v>Medium</v>
       </c>
       <c r="AF148" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG148" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH148" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI148" s="1" t="s">
@@ -31945,11 +31924,11 @@
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
-        <f>LEFT(C149, SEARCH(" ",C149,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Donna </v>
       </c>
       <c r="B149" s="1" t="str">
-        <f>RIGHT(C149,LEN(C149)-SEARCH(" ",C149,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Klock </v>
       </c>
       <c r="C149" s="1" t="s">
@@ -32032,14 +32011,14 @@
         <v>Small</v>
       </c>
       <c r="AF149" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG149" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH149" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI149" s="1" t="s">
@@ -32144,11 +32123,11 @@
     </row>
     <row r="150" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
-        <f>LEFT(C150, SEARCH(" ",C150,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Jodi </v>
       </c>
       <c r="B150" s="1" t="str">
-        <f>RIGHT(C150,LEN(C150)-SEARCH(" ",C150,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Bugg </v>
       </c>
       <c r="C150" s="1" t="s">
@@ -32231,14 +32210,14 @@
         <v>Small</v>
       </c>
       <c r="AF150" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG150" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH150" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI150" s="1" t="s">
@@ -32343,11 +32322,11 @@
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
-        <f>LEFT(C151, SEARCH(" ",C151,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Harold </v>
       </c>
       <c r="B151" s="1" t="str">
-        <f>RIGHT(C151,LEN(C151)-SEARCH(" ",C151,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Magee </v>
       </c>
       <c r="C151" s="1" t="s">
@@ -32430,14 +32409,14 @@
         <v>Small</v>
       </c>
       <c r="AF151" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG151" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH151" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI151" s="1" t="s">
@@ -32542,11 +32521,11 @@
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
-        <f>LEFT(C152, SEARCH(" ",C152,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Mildred </v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>RIGHT(C152,LEN(C152)-SEARCH(" ",C152,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Carey </v>
       </c>
       <c r="C152" s="1" t="s">
@@ -32626,14 +32605,14 @@
         <v>Medium</v>
       </c>
       <c r="AF152" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG152" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH152" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI152" s="1" t="s">
@@ -32738,11 +32717,11 @@
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
-        <f>LEFT(C153, SEARCH(" ",C153,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Amy </v>
       </c>
       <c r="B153" s="1" t="str">
-        <f>RIGHT(C153,LEN(C153)-SEARCH(" ",C153,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Randle </v>
       </c>
       <c r="C153" s="1" t="s">
@@ -32822,14 +32801,14 @@
         <v>Small</v>
       </c>
       <c r="AF153" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG153" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH153" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI153" s="1" t="s">
@@ -32934,11 +32913,11 @@
     </row>
     <row r="154" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
-        <f>LEFT(C154, SEARCH(" ",C154,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Mary </v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>RIGHT(C154,LEN(C154)-SEARCH(" ",C154,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Bates </v>
       </c>
       <c r="C154" s="1" t="s">
@@ -33021,14 +33000,14 @@
         <v>Small</v>
       </c>
       <c r="AF154" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG154" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH154" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI154" s="1" t="s">
@@ -33133,11 +33112,11 @@
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
-        <f>LEFT(C155, SEARCH(" ",C155,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B155" s="1" t="str">
-        <f>RIGHT(C155,LEN(C155)-SEARCH(" ",C155,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C155" s="1" t="s">
@@ -33220,14 +33199,14 @@
         <v>Small</v>
       </c>
       <c r="AF155" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG155" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH155" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI155" s="1" t="s">
@@ -33332,11 +33311,11 @@
     </row>
     <row r="156" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
-        <f>LEFT(C156, SEARCH(" ",C156,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Jennifer </v>
       </c>
       <c r="B156" s="1" t="str">
-        <f>RIGHT(C156,LEN(C156)-SEARCH(" ",C156,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Becker </v>
       </c>
       <c r="C156" s="1" t="s">
@@ -33419,14 +33398,14 @@
         <v>Medium</v>
       </c>
       <c r="AF156" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG156" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH156" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI156" s="1" t="s">
@@ -33531,11 +33510,11 @@
     </row>
     <row r="157" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
-        <f>LEFT(C157, SEARCH(" ",C157,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Jason </v>
       </c>
       <c r="B157" s="1" t="str">
-        <f>RIGHT(C157,LEN(C157)-SEARCH(" ",C157,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Glass </v>
       </c>
       <c r="C157" s="1" t="s">
@@ -33618,14 +33597,14 @@
         <v>Medium</v>
       </c>
       <c r="AF157" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG157" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH157" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI157" s="1" t="s">
@@ -33730,11 +33709,11 @@
     </row>
     <row r="158" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
-        <f>LEFT(C158, SEARCH(" ",C158,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Reda </v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>RIGHT(C158,LEN(C158)-SEARCH(" ",C158,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Fullilove </v>
       </c>
       <c r="C158" s="1" t="s">
@@ -33814,14 +33793,14 @@
         <v>Medium</v>
       </c>
       <c r="AF158" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG158" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH158" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI158" s="1" t="s">
@@ -33926,11 +33905,11 @@
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
-        <f>LEFT(C159, SEARCH(" ",C159,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Phyllis </v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>RIGHT(C159,LEN(C159)-SEARCH(" ",C159,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">White </v>
       </c>
       <c r="C159" s="1" t="s">
@@ -34013,14 +33992,14 @@
         <v>Small</v>
       </c>
       <c r="AF159" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG159" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH159" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI159" s="1" t="s">
@@ -34125,11 +34104,11 @@
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
-        <f>LEFT(C160, SEARCH(" ",C160,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Melba </v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>RIGHT(C160,LEN(C160)-SEARCH(" ",C160,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Whitehead </v>
       </c>
       <c r="C160" s="1" t="s">
@@ -34212,14 +34191,14 @@
         <v>Small</v>
       </c>
       <c r="AF160" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG160" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH160" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI160" s="1" t="s">
@@ -34324,11 +34303,11 @@
     </row>
     <row r="161" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
-        <f>LEFT(C161, SEARCH(" ",C161,1))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Melvin </v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>RIGHT(C161,LEN(C161)-SEARCH(" ",C161,1))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Schmitz </v>
       </c>
       <c r="C161" s="1" t="s">
@@ -34408,14 +34387,14 @@
         <v>Small</v>
       </c>
       <c r="AF161" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG161" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH161" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI161" s="1" t="s">
@@ -34520,11 +34499,11 @@
     </row>
     <row r="162" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
-        <f>LEFT(C162, SEARCH(" ",C162,1))</f>
+        <f t="shared" ref="A162:A195" si="16">LEFT(C162, SEARCH(" ",C162,1))</f>
         <v xml:space="preserve">Judy </v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>RIGHT(C162,LEN(C162)-SEARCH(" ",C162,1))</f>
+        <f t="shared" ref="B162:B193" si="17">RIGHT(C162,LEN(C162)-SEARCH(" ",C162,1))</f>
         <v xml:space="preserve">Hopping </v>
       </c>
       <c r="C162" s="1" t="s">
@@ -34604,14 +34583,14 @@
         <v>Medium</v>
       </c>
       <c r="AF162" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG162" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH162" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI162" s="1" t="s">
@@ -34716,11 +34695,11 @@
     </row>
     <row r="163" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
-        <f>LEFT(C163, SEARCH(" ",C163,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Donald </v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>RIGHT(C163,LEN(C163)-SEARCH(" ",C163,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Velazquez </v>
       </c>
       <c r="C163" s="1" t="s">
@@ -34800,14 +34779,14 @@
         <v>Small</v>
       </c>
       <c r="AF163" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG163" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH163" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI163" s="1" t="s">
@@ -34912,11 +34891,11 @@
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
-        <f>LEFT(C164, SEARCH(" ",C164,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Robert </v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>RIGHT(C164,LEN(C164)-SEARCH(" ",C164,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Ojeda </v>
       </c>
       <c r="C164" s="1" t="s">
@@ -34999,14 +34978,14 @@
         <v>Medium</v>
       </c>
       <c r="AF164" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG164" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH164" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI164" s="1" t="s">
@@ -35111,11 +35090,11 @@
     </row>
     <row r="165" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
-        <f>LEFT(C165, SEARCH(" ",C165,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Melvin </v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>RIGHT(C165,LEN(C165)-SEARCH(" ",C165,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Schmitz </v>
       </c>
       <c r="C165" s="1" t="s">
@@ -35195,14 +35174,14 @@
         <v>Small</v>
       </c>
       <c r="AF165" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG165" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AH165" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI165" s="1" t="s">
@@ -35307,11 +35286,11 @@
     </row>
     <row r="166" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
-        <f>LEFT(C166, SEARCH(" ",C166,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Rosemary </v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>RIGHT(C166,LEN(C166)-SEARCH(" ",C166,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Herbert </v>
       </c>
       <c r="C166" s="1" t="s">
@@ -35394,14 +35373,14 @@
         <v>Small</v>
       </c>
       <c r="AF166" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG166" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH166" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI166" s="1" t="s">
@@ -35506,11 +35485,11 @@
     </row>
     <row r="167" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
-        <f>LEFT(C167, SEARCH(" ",C167,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Quinn </v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>RIGHT(C167,LEN(C167)-SEARCH(" ",C167,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Perry </v>
       </c>
       <c r="C167" s="1" t="s">
@@ -35593,14 +35572,14 @@
         <v>Small</v>
       </c>
       <c r="AF167" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG167" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH167" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI167" s="1" t="s">
@@ -35705,11 +35684,11 @@
     </row>
     <row r="168" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
-        <f>LEFT(C168, SEARCH(" ",C168,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Margaret </v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>RIGHT(C168,LEN(C168)-SEARCH(" ",C168,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Shelton </v>
       </c>
       <c r="C168" s="1" t="s">
@@ -35792,14 +35771,14 @@
         <v>Small</v>
       </c>
       <c r="AF168" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG168" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH168" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI168" s="1" t="s">
@@ -35904,11 +35883,11 @@
     </row>
     <row r="169" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
-        <f>LEFT(C169, SEARCH(" ",C169,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Kristin </v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>RIGHT(C169,LEN(C169)-SEARCH(" ",C169,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Mendoza </v>
       </c>
       <c r="C169" s="1" t="s">
@@ -35991,14 +35970,14 @@
         <v>Medium</v>
       </c>
       <c r="AF169" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG169" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH169" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI169" s="1" t="s">
@@ -36103,11 +36082,11 @@
     </row>
     <row r="170" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
-        <f>LEFT(C170, SEARCH(" ",C170,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Melba </v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>RIGHT(C170,LEN(C170)-SEARCH(" ",C170,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Whitehead </v>
       </c>
       <c r="C170" s="1" t="s">
@@ -36190,14 +36169,14 @@
         <v>Small</v>
       </c>
       <c r="AF170" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG170" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH170" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI170" s="1" t="s">
@@ -36302,11 +36281,11 @@
     </row>
     <row r="171" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="str">
-        <f>LEFT(C171, SEARCH(" ",C171,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>RIGHT(C171,LEN(C171)-SEARCH(" ",C171,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C171" s="1" t="s">
@@ -36389,14 +36368,14 @@
         <v>Small</v>
       </c>
       <c r="AF171" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG171" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH171" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI171" s="1" t="s">
@@ -36501,11 +36480,11 @@
     </row>
     <row r="172" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="str">
-        <f>LEFT(C172, SEARCH(" ",C172,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Charles </v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>RIGHT(C172,LEN(C172)-SEARCH(" ",C172,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Pickett </v>
       </c>
       <c r="C172" s="1" t="s">
@@ -36588,14 +36567,14 @@
         <v>Small</v>
       </c>
       <c r="AF172" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG172" s="1" t="s">
         <v>575</v>
       </c>
       <c r="AH172" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI172" s="1" t="s">
@@ -36700,11 +36679,11 @@
     </row>
     <row r="173" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
-        <f>LEFT(C173, SEARCH(" ",C173,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Cecil </v>
       </c>
       <c r="B173" s="1" t="str">
-        <f>RIGHT(C173,LEN(C173)-SEARCH(" ",C173,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Games </v>
       </c>
       <c r="C173" s="1" t="s">
@@ -36784,14 +36763,14 @@
         <v>Medium</v>
       </c>
       <c r="AF173" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG173" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH173" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI173" s="1" t="s">
@@ -36896,11 +36875,11 @@
     </row>
     <row r="174" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
-        <f>LEFT(C174, SEARCH(" ",C174,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Harry </v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>RIGHT(C174,LEN(C174)-SEARCH(" ",C174,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Brumback </v>
       </c>
       <c r="C174" s="1" t="s">
@@ -36983,14 +36962,14 @@
         <v>Small</v>
       </c>
       <c r="AF174" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG174" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH174" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI174" s="1" t="s">
@@ -37095,11 +37074,11 @@
     </row>
     <row r="175" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
-        <f>LEFT(C175, SEARCH(" ",C175,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Mildred </v>
       </c>
       <c r="B175" s="1" t="str">
-        <f>RIGHT(C175,LEN(C175)-SEARCH(" ",C175,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Carey </v>
       </c>
       <c r="C175" s="1" t="s">
@@ -37179,14 +37158,14 @@
         <v>Medium</v>
       </c>
       <c r="AF175" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG175" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH175" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI175" s="1" t="s">
@@ -37291,11 +37270,11 @@
     </row>
     <row r="176" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
-        <f>LEFT(C176, SEARCH(" ",C176,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Betty </v>
       </c>
       <c r="B176" s="1" t="str">
-        <f>RIGHT(C176,LEN(C176)-SEARCH(" ",C176,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Grimes </v>
       </c>
       <c r="C176" s="1" t="s">
@@ -37375,14 +37354,14 @@
         <v>Small</v>
       </c>
       <c r="AF176" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG176" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH176" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI176" s="1" t="s">
@@ -37487,11 +37466,11 @@
     </row>
     <row r="177" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
-        <f>LEFT(C177, SEARCH(" ",C177,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Katherine </v>
       </c>
       <c r="B177" s="1" t="str">
-        <f>RIGHT(C177,LEN(C177)-SEARCH(" ",C177,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Mullins </v>
       </c>
       <c r="C177" s="1" t="s">
@@ -37574,14 +37553,14 @@
         <v>Small</v>
       </c>
       <c r="AF177" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG177" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH177" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI177" s="1" t="s">
@@ -37686,11 +37665,11 @@
     </row>
     <row r="178" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
-        <f>LEFT(C178, SEARCH(" ",C178,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Edward </v>
       </c>
       <c r="B178" s="1" t="str">
-        <f>RIGHT(C178,LEN(C178)-SEARCH(" ",C178,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Turner </v>
       </c>
       <c r="C178" s="1" t="s">
@@ -37773,14 +37752,14 @@
         <v>Medium</v>
       </c>
       <c r="AF178" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG178" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH178" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI178" s="1" t="s">
@@ -37885,11 +37864,11 @@
     </row>
     <row r="179" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
-        <f>LEFT(C179, SEARCH(" ",C179,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B179" s="1" t="str">
-        <f>RIGHT(C179,LEN(C179)-SEARCH(" ",C179,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Moyle </v>
       </c>
       <c r="C179" s="1" t="s">
@@ -37972,14 +37951,14 @@
         <v>Medium</v>
       </c>
       <c r="AF179" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG179" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH179" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI179" s="1" t="s">
@@ -38084,11 +38063,11 @@
     </row>
     <row r="180" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
-        <f>LEFT(C180, SEARCH(" ",C180,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Yasmin </v>
       </c>
       <c r="B180" s="1" t="str">
-        <f>RIGHT(C180,LEN(C180)-SEARCH(" ",C180,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Cole </v>
       </c>
       <c r="C180" s="1" t="s">
@@ -38171,14 +38150,14 @@
         <v>Medium</v>
       </c>
       <c r="AF180" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG180" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH180" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI180" s="1" t="s">
@@ -38283,11 +38262,11 @@
     </row>
     <row r="181" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
-        <f>LEFT(C181, SEARCH(" ",C181,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">James </v>
       </c>
       <c r="B181" s="1" t="str">
-        <f>RIGHT(C181,LEN(C181)-SEARCH(" ",C181,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Moyle </v>
       </c>
       <c r="C181" s="1" t="s">
@@ -38370,14 +38349,14 @@
         <v>Medium</v>
       </c>
       <c r="AF181" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG181" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH181" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI181" s="1" t="s">
@@ -38482,11 +38461,11 @@
     </row>
     <row r="182" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
-        <f>LEFT(C182, SEARCH(" ",C182,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Thomas </v>
       </c>
       <c r="B182" s="1" t="str">
-        <f>RIGHT(C182,LEN(C182)-SEARCH(" ",C182,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Farris </v>
       </c>
       <c r="C182" s="1" t="s">
@@ -38569,14 +38548,14 @@
         <v>Medium</v>
       </c>
       <c r="AF182" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG182" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH182" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI182" s="1" t="s">
@@ -38681,11 +38660,11 @@
     </row>
     <row r="183" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
-        <f>LEFT(C183, SEARCH(" ",C183,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Ivan </v>
       </c>
       <c r="B183" s="1" t="str">
-        <f>RIGHT(C183,LEN(C183)-SEARCH(" ",C183,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Case </v>
       </c>
       <c r="C183" s="1" t="s">
@@ -38768,14 +38747,14 @@
         <v>Medium</v>
       </c>
       <c r="AF183" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG183" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH183" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI183" s="1" t="s">
@@ -38880,11 +38859,11 @@
     </row>
     <row r="184" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
-        <f>LEFT(C184, SEARCH(" ",C184,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Donna </v>
       </c>
       <c r="B184" s="1" t="str">
-        <f>RIGHT(C184,LEN(C184)-SEARCH(" ",C184,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Klock </v>
       </c>
       <c r="C184" s="1" t="s">
@@ -38967,14 +38946,14 @@
         <v>Small</v>
       </c>
       <c r="AF184" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG184" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH184" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI184" s="1" t="s">
@@ -39079,11 +39058,11 @@
     </row>
     <row r="185" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
-        <f>LEFT(C185, SEARCH(" ",C185,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Melba </v>
       </c>
       <c r="B185" s="1" t="str">
-        <f>RIGHT(C185,LEN(C185)-SEARCH(" ",C185,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Whitehead </v>
       </c>
       <c r="C185" s="1" t="s">
@@ -39166,14 +39145,14 @@
         <v>Small</v>
       </c>
       <c r="AF185" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG185" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH185" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI185" s="1" t="s">
@@ -39278,11 +39257,11 @@
     </row>
     <row r="186" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
-        <f>LEFT(C186, SEARCH(" ",C186,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Alfonso </v>
       </c>
       <c r="B186" s="1" t="str">
-        <f>RIGHT(C186,LEN(C186)-SEARCH(" ",C186,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Frazier </v>
       </c>
       <c r="C186" s="1" t="s">
@@ -39365,14 +39344,14 @@
         <v>Small</v>
       </c>
       <c r="AF186" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG186" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH186" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI186" s="1" t="s">
@@ -39477,11 +39456,11 @@
     </row>
     <row r="187" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
-        <f>LEFT(C187, SEARCH(" ",C187,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Phyllis </v>
       </c>
       <c r="B187" s="1" t="str">
-        <f>RIGHT(C187,LEN(C187)-SEARCH(" ",C187,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">White </v>
       </c>
       <c r="C187" s="1" t="s">
@@ -39564,14 +39543,14 @@
         <v>Small</v>
       </c>
       <c r="AF187" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG187" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH187" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI187" s="1" t="s">
@@ -39676,11 +39655,11 @@
     </row>
     <row r="188" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
-        <f>LEFT(C188, SEARCH(" ",C188,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Jodi </v>
       </c>
       <c r="B188" s="1" t="str">
-        <f>RIGHT(C188,LEN(C188)-SEARCH(" ",C188,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Bugg </v>
       </c>
       <c r="C188" s="1" t="s">
@@ -39763,14 +39742,14 @@
         <v>Small</v>
       </c>
       <c r="AF188" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG188" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH188" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI188" s="1" t="s">
@@ -39875,11 +39854,11 @@
     </row>
     <row r="189" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
-        <f>LEFT(C189, SEARCH(" ",C189,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Melvin </v>
       </c>
       <c r="B189" s="1" t="str">
-        <f>RIGHT(C189,LEN(C189)-SEARCH(" ",C189,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Schmitz </v>
       </c>
       <c r="C189" s="1" t="s">
@@ -39959,14 +39938,14 @@
         <v>Small</v>
       </c>
       <c r="AF189" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG189" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH189" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI189" s="1" t="s">
@@ -40071,11 +40050,11 @@
     </row>
     <row r="190" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
-        <f>LEFT(C190, SEARCH(" ",C190,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Rafael </v>
       </c>
       <c r="B190" s="1" t="str">
-        <f>RIGHT(C190,LEN(C190)-SEARCH(" ",C190,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Middleton </v>
       </c>
       <c r="C190" s="1" t="s">
@@ -40158,14 +40137,14 @@
         <v>Medium</v>
       </c>
       <c r="AF190" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Medium</v>
       </c>
       <c r="AG190" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH190" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI190" s="1" t="s">
@@ -40270,11 +40249,11 @@
     </row>
     <row r="191" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
-        <f>LEFT(C191, SEARCH(" ",C191,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Joseph </v>
       </c>
       <c r="B191" s="1" t="str">
-        <f>RIGHT(C191,LEN(C191)-SEARCH(" ",C191,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Rogers </v>
       </c>
       <c r="C191" s="1" t="s">
@@ -40354,14 +40333,14 @@
         <v>Small</v>
       </c>
       <c r="AF191" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG191" s="1" t="s">
         <v>577</v>
       </c>
       <c r="AH191" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>no</v>
       </c>
       <c r="AI191" s="1" t="s">
@@ -40466,11 +40445,11 @@
     </row>
     <row r="192" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f>LEFT(C192, SEARCH(" ",C192,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Linda </v>
       </c>
       <c r="B192" s="1" t="str">
-        <f>RIGHT(C192,LEN(C192)-SEARCH(" ",C192,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Garcia </v>
       </c>
       <c r="C192" s="1" t="s">
@@ -40553,14 +40532,14 @@
         <v>Large</v>
       </c>
       <c r="AF192" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Large</v>
       </c>
       <c r="AG192" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH192" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI192" s="1" t="s">
@@ -40665,11 +40644,11 @@
     </row>
     <row r="193" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f>LEFT(C193, SEARCH(" ",C193,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Emma </v>
       </c>
       <c r="B193" s="1" t="str">
-        <f>RIGHT(C193,LEN(C193)-SEARCH(" ",C193,1))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Perez </v>
       </c>
       <c r="C193" s="1" t="s">
@@ -40752,14 +40731,14 @@
         <v>Small</v>
       </c>
       <c r="AF193" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG193" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH193" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI193" s="1" t="s">
@@ -40864,11 +40843,11 @@
     </row>
     <row r="194" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f>LEFT(C194, SEARCH(" ",C194,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Lisa </v>
       </c>
       <c r="B194" s="1" t="str">
-        <f>RIGHT(C194,LEN(C194)-SEARCH(" ",C194,1))</f>
+        <f t="shared" ref="B194:B225" si="18">RIGHT(C194,LEN(C194)-SEARCH(" ",C194,1))</f>
         <v xml:space="preserve">Guest </v>
       </c>
       <c r="C194" s="1" t="s">
@@ -40951,14 +40930,14 @@
         <v>Small</v>
       </c>
       <c r="AF194" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Small</v>
       </c>
       <c r="AG194" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH194" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>yes</v>
       </c>
       <c r="AI194" s="1" t="s">
@@ -41063,11 +41042,11 @@
     </row>
     <row r="195" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f>LEFT(C195, SEARCH(" ",C195,1))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Quinn </v>
       </c>
       <c r="B195" s="1" t="str">
-        <f>RIGHT(C195,LEN(C195)-SEARCH(" ",C195,1))</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">Perry </v>
       </c>
       <c r="C195" s="1" t="s">
@@ -41150,14 +41129,14 @@
         <v>Small</v>
       </c>
       <c r="AF195" s="1" t="str">
-        <f t="shared" ref="AF195" si="6">IF(AD195&gt;300,"Large",IF(AD195&gt;100,"Medium",IF(AD195&gt;0,"Small")))</f>
+        <f t="shared" ref="AF195" si="19">IF(AD195&gt;300,"Large",IF(AD195&gt;100,"Medium",IF(AD195&gt;0,"Small")))</f>
         <v>Small</v>
       </c>
       <c r="AG195" s="1" t="s">
         <v>574</v>
       </c>
       <c r="AH195" s="1" t="str">
-        <f t="shared" ref="AH195" si="7">IF(AG195="complete","yes","no")</f>
+        <f t="shared" ref="AH195" si="20">IF(AG195="complete","yes","no")</f>
         <v>yes</v>
       </c>
       <c r="AI195" s="1" t="s">
@@ -41395,6 +41374,13 @@
       <c r="BO197"/>
     </row>
     <row r="198" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B198" s="1">
+        <f>COUNTIF(N2:N195,"VISA")</f>
+        <v>41</v>
+      </c>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
@@ -41462,6 +41448,13 @@
       <c r="BO198"/>
     </row>
     <row r="199" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B199" s="1">
+        <f>SUMIF(AE2:AE195,"Large",AD2:AD195)</f>
+        <v>2638.9</v>
+      </c>
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
@@ -41529,6 +41522,13 @@
       <c r="BO199"/>
     </row>
     <row r="200" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B200" s="1">
+        <f>SUMIFS(AD2:AD195,AE2:AE195,"Large",AL2:AL195,"BABY_BOOMERS")</f>
+        <v>1350.9</v>
+      </c>
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
@@ -41601,11 +41601,11 @@
     <sortCondition ref="AB2:AB195"/>
     <sortCondition descending="1" ref="AD2:AD195"/>
   </sortState>
+  <conditionalFormatting sqref="V96:V100">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V101:V195 V201:V1048576 V1:V95">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V96:V100">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V201:V1048576 V1:V195">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
